--- a/Ex3/RES/SP.xlsx
+++ b/Ex3/RES/SP.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\OOP_2020\Ex3\RES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40756A17-4773-4D96-9A1B-3FCC52541DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6979D40-B4FD-4313-8773-D7F79869A7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>GR</t>
   </si>
@@ -58,6 +67,9 @@
   </si>
   <si>
     <t>dest</t>
+  </si>
+  <si>
+    <t>nx</t>
   </si>
 </sst>
 </file>
@@ -93,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,18 +388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,13 +411,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -413,14 +430,18 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="1">
+        <v>6.53</v>
       </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -430,14 +451,18 @@
       <c r="C3">
         <v>1994400</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" s="1">
+        <v>4.5999999999999996</v>
       </c>
       <c r="E3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -447,14 +472,18 @@
       <c r="C4">
         <v>15957300</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="1">
+        <v>1.22</v>
       </c>
       <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -464,14 +493,18 @@
       <c r="C5">
         <v>264568500</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -481,14 +514,18 @@
       <c r="C6">
         <v>403056000</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -498,12 +535,16 @@
       <c r="C7">
         <v>648439100</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" s="1">
+        <v>1.17</v>
       </c>
       <c r="E7">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
